--- a/Connected Office Web Application User Acceptance Testing/CMPG323 EcoPower Logistics Data.xlsx
+++ b/Connected Office Web Application User Acceptance Testing/CMPG323 EcoPower Logistics Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Desktop\Project_4-35087749\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nttlimited-my.sharepoint.com/personal/jacqui_muller_dimensiondata_com/Documents/NWU/2023 CMPG323/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2651EEFB-1407-451F-B5E0-C79E192A7354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{5546F926-6C85-4EAE-890A-D0833008B810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B224C2EE-D72C-413C-83C8-0FBC3DD6E173}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="2940" windowWidth="33060" windowHeight="17115" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>

--- a/Connected Office Web Application User Acceptance Testing/CMPG323 EcoPower Logistics Data.xlsx
+++ b/Connected Office Web Application User Acceptance Testing/CMPG323 EcoPower Logistics Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nttlimited-my.sharepoint.com/personal/jacqui_muller_dimensiondata_com/Documents/NWU/2023 CMPG323/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Desktop\Project_4-35087749\Connected Office Web Application User Acceptance Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{5546F926-6C85-4EAE-890A-D0833008B810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B224C2EE-D72C-413C-83C8-0FBC3DD6E173}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06388693-F97C-4F21-A9D2-9DEA9B99CE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14160" yWindow="4875" windowWidth="21570" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -732,7 +732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -778,6 +778,9 @@
       </c>
       <c r="E2">
         <v>5723177115</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1950,7 +1953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>

--- a/Connected Office Web Application User Acceptance Testing/CMPG323 EcoPower Logistics Data.xlsx
+++ b/Connected Office Web Application User Acceptance Testing/CMPG323 EcoPower Logistics Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Desktop\Project_4-35087749\Connected Office Web Application User Acceptance Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06388693-F97C-4F21-A9D2-9DEA9B99CE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204DC7EC-A410-45C2-9E6F-F16A9622C393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14160" yWindow="4875" windowWidth="21570" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4545" yWindow="3855" windowWidth="21570" windowHeight="13470" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -732,7 +732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -799,6 +799,9 @@
       <c r="E3">
         <v>9041993848</v>
       </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -816,6 +819,9 @@
       <c r="E4">
         <v>3738283528</v>
       </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -833,6 +839,9 @@
       <c r="E5">
         <v>6447102299</v>
       </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -850,6 +859,9 @@
       <c r="E6">
         <v>1878764468</v>
       </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -867,6 +879,9 @@
       <c r="E7">
         <v>9666552669</v>
       </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -884,6 +899,9 @@
       <c r="E8">
         <v>2384982848</v>
       </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -901,6 +919,9 @@
       <c r="E9">
         <v>8945409882</v>
       </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -918,6 +939,9 @@
       <c r="E10">
         <v>1320602595</v>
       </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -935,6 +959,9 @@
       <c r="E11">
         <v>7968612324</v>
       </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -952,6 +979,9 @@
       <c r="E12">
         <v>1578247192</v>
       </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -969,6 +999,9 @@
       <c r="E13">
         <v>7425817353</v>
       </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -985,6 +1018,9 @@
       </c>
       <c r="E14">
         <v>5815761997</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -996,7 +1032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -1045,6 +1081,9 @@
       <c r="E2">
         <v>0</v>
       </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1062,6 +1101,9 @@
       <c r="E3">
         <v>0</v>
       </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1079,6 +1121,9 @@
       <c r="E4">
         <v>0</v>
       </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1096,6 +1141,9 @@
       <c r="E5">
         <v>0</v>
       </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1113,6 +1161,9 @@
       <c r="E6">
         <v>0.7</v>
       </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1130,6 +1181,9 @@
       <c r="E7">
         <v>0.2</v>
       </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1147,6 +1201,9 @@
       <c r="E8">
         <v>0.2</v>
       </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1164,6 +1221,9 @@
       <c r="E9">
         <v>0.2</v>
       </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1181,6 +1241,9 @@
       <c r="E10">
         <v>0.2</v>
       </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1198,6 +1261,9 @@
       <c r="E11">
         <v>0.2</v>
       </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1215,6 +1281,9 @@
       <c r="E12">
         <v>0.2</v>
       </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1232,6 +1301,9 @@
       <c r="E13">
         <v>0.2</v>
       </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1249,6 +1321,9 @@
       <c r="E14">
         <v>0</v>
       </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1266,6 +1341,9 @@
       <c r="E15">
         <v>0</v>
       </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1283,8 +1361,11 @@
       <c r="E16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6091</v>
       </c>
@@ -1300,8 +1381,11 @@
       <c r="E17">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6092</v>
       </c>
@@ -1317,8 +1401,11 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6093</v>
       </c>
@@ -1334,8 +1421,11 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6094</v>
       </c>
@@ -1351,8 +1441,11 @@
       <c r="E20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6095</v>
       </c>
@@ -1368,8 +1461,11 @@
       <c r="E21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6096</v>
       </c>
@@ -1385,8 +1481,11 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6097</v>
       </c>
@@ -1402,8 +1501,11 @@
       <c r="E23">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6098</v>
       </c>
@@ -1419,8 +1521,11 @@
       <c r="E24">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6099</v>
       </c>
@@ -1436,8 +1541,11 @@
       <c r="E25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>6100</v>
       </c>
@@ -1453,8 +1561,11 @@
       <c r="E26">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>6101</v>
       </c>
@@ -1470,8 +1581,11 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>6102</v>
       </c>
@@ -1487,8 +1601,11 @@
       <c r="E28">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6103</v>
       </c>
@@ -1504,8 +1621,11 @@
       <c r="E29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6104</v>
       </c>
@@ -1521,8 +1641,11 @@
       <c r="E30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6288</v>
       </c>
@@ -1538,8 +1661,11 @@
       <c r="E31">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>6289</v>
       </c>
@@ -1555,8 +1681,11 @@
       <c r="E32">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>7320</v>
       </c>
@@ -1572,8 +1701,11 @@
       <c r="E33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7321</v>
       </c>
@@ -1589,8 +1721,11 @@
       <c r="E34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>7404</v>
       </c>
@@ -1606,8 +1741,11 @@
       <c r="E35">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>7405</v>
       </c>
@@ -1623,8 +1761,11 @@
       <c r="E36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>7406</v>
       </c>
@@ -1640,8 +1781,11 @@
       <c r="E37">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>7407</v>
       </c>
@@ -1657,8 +1801,11 @@
       <c r="E38">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>9132</v>
       </c>
@@ -1674,8 +1821,11 @@
       <c r="E39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>9133</v>
       </c>
@@ -1691,8 +1841,11 @@
       <c r="E40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>9737</v>
       </c>
@@ -1707,6 +1860,9 @@
       </c>
       <c r="E41">
         <v>0</v>
+      </c>
+      <c r="F41" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1953,7 +2109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -1996,6 +2152,9 @@
       <c r="D2">
         <v>950</v>
       </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -2010,6 +2169,9 @@
       <c r="D3">
         <v>61</v>
       </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -2024,6 +2186,9 @@
       <c r="D4">
         <v>281</v>
       </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -2038,6 +2203,9 @@
       <c r="D5">
         <v>502</v>
       </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -2052,6 +2220,9 @@
       <c r="D6">
         <v>621</v>
       </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -2066,6 +2237,9 @@
       <c r="D7">
         <v>765</v>
       </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -2080,6 +2254,9 @@
       <c r="D8">
         <v>709</v>
       </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -2094,6 +2271,9 @@
       <c r="D9">
         <v>485</v>
       </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -2108,6 +2288,9 @@
       <c r="D10">
         <v>158</v>
       </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -2122,6 +2305,9 @@
       <c r="D11">
         <v>485</v>
       </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -2136,6 +2322,9 @@
       <c r="D12">
         <v>322</v>
       </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -2150,6 +2339,9 @@
       <c r="D13">
         <v>51</v>
       </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -2164,6 +2356,9 @@
       <c r="D14">
         <v>152</v>
       </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -2178,6 +2373,9 @@
       <c r="D15">
         <v>634</v>
       </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -2192,8 +2390,11 @@
       <c r="D16">
         <v>299</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10001606</v>
       </c>
@@ -2206,8 +2407,11 @@
       <c r="D17">
         <v>466</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10001622</v>
       </c>
@@ -2220,8 +2424,11 @@
       <c r="D18">
         <v>971</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10001772</v>
       </c>
@@ -2234,8 +2441,11 @@
       <c r="D19">
         <v>434</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10001979</v>
       </c>
@@ -2248,8 +2458,11 @@
       <c r="D20">
         <v>228</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10001998</v>
       </c>
@@ -2262,8 +2475,11 @@
       <c r="D21">
         <v>142</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10002012</v>
       </c>
@@ -2276,8 +2492,11 @@
       <c r="D22">
         <v>789</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10002310</v>
       </c>
@@ -2290,8 +2509,11 @@
       <c r="D23">
         <v>924</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10002475</v>
       </c>
@@ -2304,8 +2526,11 @@
       <c r="D24">
         <v>206</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10002563</v>
       </c>
@@ -2318,8 +2543,11 @@
       <c r="D25">
         <v>832</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10002647</v>
       </c>
@@ -2332,8 +2560,11 @@
       <c r="D26">
         <v>712</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10002713</v>
       </c>
@@ -2346,8 +2577,11 @@
       <c r="D27">
         <v>781</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10002885</v>
       </c>
@@ -2360,8 +2594,11 @@
       <c r="D28">
         <v>977</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10002968</v>
       </c>
@@ -2374,8 +2611,11 @@
       <c r="D29">
         <v>95</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10003012</v>
       </c>
@@ -2388,8 +2628,11 @@
       <c r="D30">
         <v>315</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10003061</v>
       </c>
@@ -2402,8 +2645,11 @@
       <c r="D31">
         <v>433</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>10003072</v>
       </c>
@@ -2416,8 +2662,11 @@
       <c r="D32">
         <v>495</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>10003623</v>
       </c>
@@ -2430,8 +2679,11 @@
       <c r="D33">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>10003715</v>
       </c>
@@ -2444,8 +2696,11 @@
       <c r="D34">
         <v>263</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10003833</v>
       </c>
@@ -2458,8 +2713,11 @@
       <c r="D35">
         <v>810</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>10003846</v>
       </c>
@@ -2472,8 +2730,11 @@
       <c r="D36">
         <v>637</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10004015</v>
       </c>
@@ -2486,8 +2747,11 @@
       <c r="D37">
         <v>804</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10004086</v>
       </c>
@@ -2500,8 +2764,11 @@
       <c r="D38">
         <v>933</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10004495</v>
       </c>
@@ -2514,8 +2781,11 @@
       <c r="D39">
         <v>595</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>10004667</v>
       </c>
@@ -2527,6 +2797,9 @@
       </c>
       <c r="D40">
         <v>557</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
